--- a/test/private_template_scheme/private_template_scheme_enhanced.xlsx
+++ b/test/private_template_scheme/private_template_scheme_enhanced.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Andrea\Desktop\Main\City\Individual Project\Source code\test\private_template_scheme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8087A579-EEB9-4CAD-A21F-E9156A7F9FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B144D30A-5CDB-4603-8855-F3A3BC2083B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7845" yWindow="675" windowWidth="16065" windowHeight="15510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -131,7 +131,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -198,11 +198,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -221,6 +247,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,7 +536,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,42 +559,42 @@
       <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -581,8 +613,8 @@
         <v>0.68059999999999998</v>
       </c>
       <c r="F4" s="9">
-        <f xml:space="preserve"> SUM(1, -D4, -E4)</f>
-        <v>0.28470000000000006</v>
+        <f xml:space="preserve"> (5 * SUM(1, -E4) + 4 * SUM(1, -D4)) / 9</f>
+        <v>0.6064666666666666</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -600,8 +632,8 @@
         <v>0.23150000000000001</v>
       </c>
       <c r="F5" s="9">
-        <f xml:space="preserve"> SUM(1, -D5, -E5)</f>
-        <v>0.24539999999999998</v>
+        <f t="shared" ref="F5:F26" si="0" xml:space="preserve"> (5 * SUM(1, -E5) + 4 * SUM(1, -D5)) / 9</f>
+        <v>0.63890000000000002</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -631,8 +663,8 @@
         <v>0.70599999999999996</v>
       </c>
       <c r="F7" s="9">
-        <f xml:space="preserve"> SUM(1, -D7, -E7)</f>
-        <v>0.29170000000000007</v>
+        <f t="shared" si="0"/>
+        <v>0.6067555555555556</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -649,9 +681,9 @@
       <c r="E8" s="8">
         <v>0.68289999999999995</v>
       </c>
-      <c r="F8" s="8">
-        <f xml:space="preserve"> SUM(1, -D8, -E8)</f>
-        <v>0.29860000000000009</v>
+      <c r="F8" s="9">
+        <f t="shared" si="0"/>
+        <v>0.61238888888888887</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -669,8 +701,8 @@
         <v>0.46989999999999998</v>
       </c>
       <c r="F9" s="9">
-        <f xml:space="preserve"> SUM(1, -D9, -E9)</f>
-        <v>0.34719999999999995</v>
+        <f t="shared" si="0"/>
+        <v>0.65765555555555555</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -700,8 +732,8 @@
         <v>0.75</v>
       </c>
       <c r="F11" s="9">
-        <f xml:space="preserve"> SUM(1, -D11, -E11)</f>
-        <v>0.25</v>
+        <f t="shared" si="0"/>
+        <v>0.58333333333333337</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -719,8 +751,8 @@
         <v>0.71530000000000005</v>
       </c>
       <c r="F12" s="9">
-        <f xml:space="preserve"> SUM(1, -D12, -E12)</f>
-        <v>0.2730999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.59745555555555552</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -738,8 +770,8 @@
         <v>0.51619999999999999</v>
       </c>
       <c r="F13" s="9">
-        <f xml:space="preserve"> SUM(1, -D13, -E13)</f>
-        <v>0.36570000000000003</v>
+        <f t="shared" si="0"/>
+        <v>0.66073333333333339</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -757,8 +789,8 @@
         <v>9.2600000000000002E-2</v>
       </c>
       <c r="F14" s="9">
-        <f xml:space="preserve"> SUM(1, -D14, -E14)</f>
-        <v>0.66210000000000002</v>
+        <f t="shared" si="0"/>
+        <v>0.83953333333333324</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -776,8 +808,8 @@
         <v>3.4700000000000002E-2</v>
       </c>
       <c r="F15" s="9">
-        <f xml:space="preserve"> SUM(1, -D15, -E15)</f>
-        <v>4.1700000000000022E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.57023333333333337</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -795,8 +827,8 @@
         <v>2.3E-3</v>
       </c>
       <c r="F16" s="9">
-        <f xml:space="preserve"> SUM(1, -D16, -E16)</f>
-        <v>6.999999999999975E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.55841111111111119</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
@@ -826,8 +858,8 @@
         <v>0.53700000000000003</v>
       </c>
       <c r="F18" s="9">
-        <f xml:space="preserve"> SUM(1, -D18, -E18)</f>
-        <v>0.41439999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.6800666666666666</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
@@ -845,8 +877,8 @@
         <v>0.41810000000000003</v>
       </c>
       <c r="F19" s="9">
-        <f xml:space="preserve"> SUM(1, -D19, -E19)</f>
-        <v>0.36429999999999996</v>
+        <f t="shared" si="0"/>
+        <v>0.671011111111111</v>
       </c>
       <c r="G19" s="10">
         <v>0.419840062963312</v>
@@ -868,8 +900,8 @@
         <v>0.33689999999999998</v>
       </c>
       <c r="F20" s="9">
-        <f xml:space="preserve"> SUM(1, -D20, -E20)</f>
-        <v>0.24880000000000002</v>
+        <f t="shared" si="0"/>
+        <v>0.62870000000000004</v>
       </c>
       <c r="G20" s="10">
         <v>0.47253175185243002</v>
@@ -891,8 +923,8 @@
         <v>0.20849999999999999</v>
       </c>
       <c r="F21" s="9">
-        <f xml:space="preserve"> SUM(1, -D21, -E21)</f>
-        <v>0.13639999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.59301111111111104</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
@@ -910,8 +942,8 @@
         <v>9.2600000000000002E-2</v>
       </c>
       <c r="F22" s="9">
-        <f xml:space="preserve"> SUM(1, -D22, -E22)</f>
-        <v>0.22229999999999994</v>
+        <f t="shared" si="0"/>
+        <v>0.64406666666666668</v>
       </c>
       <c r="G22" s="10">
         <v>0.407868436110287</v>
@@ -945,8 +977,8 @@
         <v>0.49769999999999998</v>
       </c>
       <c r="F24" s="9">
-        <f xml:space="preserve"> SUM(1, -D24, -E24)</f>
-        <v>0.37730000000000002</v>
+        <f t="shared" si="0"/>
+        <v>0.66794444444444445</v>
       </c>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
@@ -976,8 +1008,8 @@
         <v>0.25929999999999997</v>
       </c>
       <c r="F26" s="9">
-        <f xml:space="preserve"> SUM(1, -D26, -E26)</f>
-        <v>0.52770000000000006</v>
+        <f t="shared" si="0"/>
+        <v>0.76127777777777772</v>
       </c>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>

--- a/test/private_template_scheme/private_template_scheme_enhanced.xlsx
+++ b/test/private_template_scheme/private_template_scheme_enhanced.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Andrea\Desktop\Main\City\Individual Project\Source code\test\private_template_scheme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B144D30A-5CDB-4603-8855-F3A3BC2083B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8B8C40-523F-4C96-87E3-257914235100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7845" yWindow="675" windowWidth="16065" windowHeight="15510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="12855" windowHeight="12405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -536,7 +536,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,8 +811,12 @@
         <f t="shared" si="0"/>
         <v>0.57023333333333337</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
+      <c r="G15" s="10">
+        <v>0.37605019996408301</v>
+      </c>
+      <c r="H15" s="10">
+        <v>5.57825930003309</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
@@ -830,8 +834,12 @@
         <f t="shared" si="0"/>
         <v>0.55841111111111119</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
+      <c r="G16" s="10">
+        <v>0.43474626481367001</v>
+      </c>
+      <c r="H16" s="10">
+        <v>5.74009769930543</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
@@ -861,8 +869,12 @@
         <f t="shared" si="0"/>
         <v>0.6800666666666666</v>
       </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
+      <c r="G18" s="10">
+        <v>0.41064017314810902</v>
+      </c>
+      <c r="H18" s="10">
+        <v>0.36200941342556398</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
@@ -926,8 +938,12 @@
         <f t="shared" si="0"/>
         <v>0.59301111111111104</v>
       </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
+      <c r="G21" s="10">
+        <v>0.42678876944356198</v>
+      </c>
+      <c r="H21" s="10">
+        <v>0.24662390833381501</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
@@ -980,8 +996,12 @@
         <f t="shared" si="0"/>
         <v>0.66794444444444445</v>
       </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
+      <c r="G24" s="10">
+        <v>0.38344519444055702</v>
+      </c>
+      <c r="H24" s="10">
+        <v>0.36089901789855</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
